--- a/src/casedata/casedata.xlsx
+++ b/src/casedata/casedata.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="7860"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>用例编号</t>
   </si>
@@ -46,74 +46,64 @@
   </si>
   <si>
     <t>/openapi/api/v2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>POST</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！1'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！2'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！3'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！4'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！5'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！6'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！7'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！8'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！9'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！10'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！11'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！12'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！13'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>{'key':'你好！14'}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,21 +120,345 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -152,31 +466,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF000000"/>
+      <color rgb="00000000"/>
     </mruColors>
   </colors>
   <extLst>
@@ -468,24 +1068,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="7" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -508,7 +1108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -527,11 +1127,11 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2">
         <v>4000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -550,11 +1150,11 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3">
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -573,11 +1173,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="2">
-        <v>4000</v>
+      <c r="G4">
+        <v>4001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -596,11 +1196,11 @@
       <c r="F5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="2">
-        <v>4000</v>
+      <c r="G5">
+        <v>4001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -619,11 +1219,11 @@
       <c r="F6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="2">
-        <v>4000</v>
+      <c r="G6">
+        <v>4001</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -642,11 +1242,11 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="2">
-        <v>4000</v>
+      <c r="G7">
+        <v>4001</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -665,11 +1265,11 @@
       <c r="F8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>4000</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -688,11 +1288,11 @@
       <c r="F9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9">
         <v>4000</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -711,11 +1311,11 @@
       <c r="F10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>4000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -734,11 +1334,11 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>4000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -757,11 +1357,11 @@
       <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -780,11 +1380,11 @@
       <c r="F13" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>4000</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -803,11 +1403,11 @@
       <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14">
         <v>4000</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -826,41 +1426,47 @@
       <c r="F15" t="s">
         <v>24</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15">
         <v>4000</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>